--- a/ant.xlsx
+++ b/ant.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="jar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t xml:space="preserve">project </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +137,38 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar cvf 1.jar @1/1.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar cvf 1.jar @D:\WorkSpace\AntWork\LearnPath_2\jarCmd05\1.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar cvf C:\Users\hzh\Desktop\1\1.jar @1.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出jar包到指定的地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,4 +802,57 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="68.75" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ant.xlsx
+++ b/ant.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="jar" sheetId="3" r:id="rId3"/>
+    <sheet name="Concat" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t xml:space="preserve">project </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +170,10 @@
   </si>
   <si>
     <t>相对地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一系列文件内容合并到指定文件中或者输出到控制台，可以创建指定内容的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +674,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -855,4 +860,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>